--- a/routers/Certificados_de_Ahorro_Energético/Agrario/Agr020RecuperaciónDelCalorDelProcesoDePreenfriamientoDeLaLecheParaUsosTérmicosEnLaExplotaciónGanadera.xlsx
+++ b/routers/Certificados_de_Ahorro_Energético/Agrario/Agr020RecuperaciónDelCalorDelProcesoDePreenfriamientoDeLaLecheParaUsosTérmicosEnLaExplotaciónGanadera.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>Representante del solicitante</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -446,7 +446,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NIFNIE</t>
+          <t>m</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -456,7 +456,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>Fecha final actuación</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -466,7 +466,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Representante del solicitante</t>
+          <t>Cp</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -496,7 +496,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cp</t>
+          <t>Textfield-1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -506,7 +506,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fecha inicio actuación</t>
+          <t>NIFNIE</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -516,7 +516,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -536,7 +536,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Textfield-1</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -546,7 +546,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fecha final actuación</t>
+          <t>Fecha inicio actuación</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/routers/Certificados_de_Ahorro_Energético/Agrario/Agr020RecuperaciónDelCalorDelProcesoDePreenfriamientoDeLaLecheParaUsosTérmicosEnLaExplotaciónGanadera.xlsx
+++ b/routers/Certificados_de_Ahorro_Energético/Agrario/Agr020RecuperaciónDelCalorDelProcesoDePreenfriamientoDeLaLecheParaUsosTérmicosEnLaExplotaciónGanadera.xlsx
@@ -446,7 +446,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>Textfield-1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -456,7 +456,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fecha final actuación</t>
+          <t>Textfield-0</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -466,7 +466,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cp</t>
+          <t>Firma1</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -476,7 +476,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Textfield-0</t>
+          <t>m</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -486,7 +486,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>NIFNIE</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -496,7 +496,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Textfield-1</t>
+          <t>Fecha final actuación</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -506,7 +506,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NIFNIE</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -516,7 +516,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>h</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -526,7 +526,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Firma1</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -536,7 +536,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Cp</t>
         </is>
       </c>
       <c r="B12" t="n">
